--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/管理费用.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/管理费用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>8.30353</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8.86431</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.96866</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00233</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.1342</v>
-      </c>
-      <c r="G2" t="n">
-        <v>11.24517</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.50222</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.57819</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.6008</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6.63765</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.41745</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.43023</v>
-      </c>
-      <c r="N2" t="n">
-        <v>11.61256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3.95856</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.01926</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.281549999999999</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.82416</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>1.60792</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.00015</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.02497</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.83421</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.53527</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>6.96515</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>12.90943</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>3.1635</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.59032</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.06077</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>180.25772</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>12.29168</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.02291</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>4.57364</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>10.92754</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>16.16128</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.9476599999999999</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>3.7719</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>9.478149999999999</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>4.45439</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>8.92432</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.63173</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>12.0725</v>
-      </c>
-      <c r="C3" t="n">
-        <v>14.95796</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.72483</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.03138</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.52556</v>
-      </c>
-      <c r="G3" t="n">
-        <v>20.49036</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.63968</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8.65002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.12501</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11.48008</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.51482</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5.89131</v>
-      </c>
-      <c r="N3" t="n">
-        <v>22.01426</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6.19652</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.36621</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>15.46674</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5.5856</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.00388</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.12737</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.05158</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.1148</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.57982</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.94548</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>10.50243</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>23.29819</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>6.94529</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2.19876</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.009520000000000001</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>300.43972</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>24.19806</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.17056</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>7.27388</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>18.63301</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>24.41276</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.47944</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>5.99273</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>14.09573</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>5.49992</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>7.01287</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.1608</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>18.59698</v>
-      </c>
-      <c r="C4" t="n">
-        <v>22.15942</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.38502</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.03121</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7.94371</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29.64658</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.30169</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12.59962</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.12281</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16.65808</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.66967</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6.39522</v>
-      </c>
-      <c r="N4" t="n">
-        <v>34.01344</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7.73076</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.93944</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>22.43977</v>
-      </c>
-      <c r="R4" t="n">
-        <v>6.27938</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>4.28669</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.00946</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.18336</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.25107</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.2095</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>15.70214</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>34.64381</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>10.11047</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>3.20176</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>435.29389</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>36.23445</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.27463</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10.68875</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>26.6965</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>35.01458</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>2.19444</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>8.548030000000001</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>19.73981</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>6.14586</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>10.36008</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1.8857</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
